--- a/biology/Médecine/Anthropogammamétrie/Anthropogammamétrie.xlsx
+++ b/biology/Médecine/Anthropogammamétrie/Anthropogammamétrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthropogammam%C3%A9trie</t>
+          <t>Anthropogammamétrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anthropogammamétrie est une technique de mesure physique de la radioactivité du corps humain. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthropogammam%C3%A9trie</t>
+          <t>Anthropogammamétrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rayons gamma émis par un élément radioactif à l'intérieur du corps humain dont l'énergie est suffisante pour s'en échapper peuvent être détectés par un scintillateur ou un détecteur à semi-conducteur placé à proximité du corps. Cependant, des rayons gamma de plus faible énergie ne s'échappent pas du corps humain et sont absorbés ou produisent d'autres interactions et perdent de l'énergie. Ceci doit donc être pris en compte pour chaque comptage.
 Les avantages de l'anthropogammamétrie sont qu'elle mesure directement la radioactivité de corps humain sans passer par des méthodes indirectes (telle l'analyse urinaire) et qu'elle peut mesurer l'effet des radionucléides insolubles dans les poumons. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anthropogammam%C3%A9trie</t>
+          <t>Anthropogammamétrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthropogammam%C3%A9trie</t>
+          <t>Anthropogammamétrie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -578,7 +596,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthropogammam%C3%A9trie</t>
+          <t>Anthropogammamétrie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,6 +615,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
